--- a/leetcode题目分类.xlsx
+++ b/leetcode题目分类.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8421D00A-D340-485F-8B74-B7DF32866672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FADF540-EF82-4F6C-AF2D-8E31927ED5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="938" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="938" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="449">
   <si>
     <t>题号</t>
   </si>
@@ -439,10 +439,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>层序遍历</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Find Bottom Left Tree Value（找树左下角的值）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -459,10 +455,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>前中后序遍历</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Binary Tree Postorder Traversal（二叉树的后序遍历）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -475,71 +467,63 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Kth Smallest Element in a BST（二叉搜索树中第K小的元素）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解法：中序遍历 / 递归</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert BST to Greater Tree（把二叉搜索树转换为累加树）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解法：中序遍历思想</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Search Tree（二叉搜索树的最近公共祖先）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>解法：递归</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Kth Smallest Element in a BST（二叉搜索树中第K小的元素）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解法：中序遍历 / 递归</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Convert BST to Greater Tree（把二叉搜索树转换为累加树）</t>
+    <t>Convert Sorted Array to Binary Search Tree（将有序数组转换为二叉搜索树）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Tree（二叉树的最近公共祖先）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert Sorted List to Binary Search Tree（有序链表转换二叉搜索树）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two Sum IV - Input is a BST（两数之和 IV - 输入 BST）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解法：使用中序遍历得到有序数组之后，再利用双指针对数组进行查找。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解法：利用二叉查找树的中序遍历为有序的性质，计算中序遍历中临近的两个节点之差的绝对值，取最小值。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Mode in Binary Search Tree（二叉搜索树中的众数）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Absolute Difference in BST（二叉搜索树的最小绝对差）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>解法：中序遍历思想</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lowest Common Ancestor of a Binary Search Tree（二叉搜索树的最近公共祖先）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解法：递归</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Convert Sorted Array to Binary Search Tree（将有序数组转换为二叉搜索树）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lowest Common Ancestor of a Binary Tree（二叉树的最近公共祖先）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Convert Sorted List to Binary Search Tree（有序链表转换二叉搜索树）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two Sum IV - Input is a BST（两数之和 IV - 输入 BST）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解法：使用中序遍历得到有序数组之后，再利用双指针对数组进行查找。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解法：利用二叉查找树的中序遍历为有序的性质，计算中序遍历中临近的两个节点之差的绝对值，取最小值。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find Mode in Binary Search Tree（二叉搜索树中的众数）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minimum Absolute Difference in BST（二叉搜索树的最小绝对差）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解法：中序遍历思想</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BST</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1537,10 +1521,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>深度优先搜索、链表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>二叉树根据先序遍历转为单链表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1870,6 +1850,42 @@
   </si>
   <si>
     <t>华为</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Course Schedule（课程表）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断有向图是否有环</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有向无环图的拓扑排序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Course Schedule III（课程表 III）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解法：递归 / 迭代，前中后序遍历</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解法：递归，深度优先搜索、链表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解法：递归，BST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2221,7 +2237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2387,9 +2403,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2561,9 +2574,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2573,9 +2583,6 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2623,9 +2630,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3073,11 +3077,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="56" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>367</v>
+      <c r="A1" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>363</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -3085,7 +3089,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3094,7 +3098,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="53" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3148,79 +3152,79 @@
         <v>2</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="25" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="25">
         <v>3</v>
       </c>
-      <c r="B2" s="93" t="s">
-        <v>340</v>
+      <c r="B2" s="92" t="s">
+        <v>336</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G2" s="124">
+        <v>339</v>
+      </c>
+      <c r="G2" s="121">
         <v>43999</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="61">
+      <c r="A3" s="60">
         <v>88</v>
       </c>
-      <c r="B3" s="61" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" s="60"/>
+    </row>
+    <row r="4" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="60">
+        <v>141</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="F3" s="61"/>
-    </row>
-    <row r="4" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="61">
-        <v>141</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61" t="s">
-        <v>268</v>
-      </c>
-      <c r="F4" s="61"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="60"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>167</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>6</v>
@@ -3231,14 +3235,14 @@
         <v>345</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F6" s="10"/>
     </row>
@@ -3247,7 +3251,7 @@
         <v>524</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>10</v>
@@ -3261,7 +3265,7 @@
         <v>633</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>6</v>
@@ -3272,27 +3276,27 @@
         <v>680</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="25" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="25">
         <v>76</v>
       </c>
-      <c r="B10" s="93" t="s">
-        <v>351</v>
+      <c r="B10" s="92" t="s">
+        <v>347</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
@@ -3300,24 +3304,24 @@
         <v>15</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="106">
+      <c r="G11" s="105">
         <v>44003</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="58" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>10</v>
@@ -3326,14 +3330,14 @@
         <v>65</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="G12" s="120">
+      <c r="G12" s="117">
         <v>44004</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
@@ -3408,36 +3412,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G1" s="28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="61" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="61">
+    <row r="2" spans="1:7" s="60" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="60">
         <v>215</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="E2" s="131">
+      <c r="D2" s="129" t="s">
+        <v>413</v>
+      </c>
+      <c r="E2" s="128">
         <v>44007</v>
       </c>
-      <c r="F2" s="61" t="s">
-        <v>406</v>
+      <c r="F2" s="60" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3445,13 +3449,13 @@
         <v>347</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3459,27 +3463,27 @@
         <v>451</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="61" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="61">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="60" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="60">
         <v>75</v>
       </c>
-      <c r="B5" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5" s="62" t="s">
+      <c r="B5" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="132" t="s">
-        <v>275</v>
+      <c r="D5" s="129" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -3487,15 +3491,15 @@
         <v>56</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="E6" s="120">
+        <v>422</v>
+      </c>
+      <c r="E6" s="117">
         <v>44050</v>
       </c>
       <c r="F6" s="14"/>
@@ -3849,7 +3853,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3880,7 +3884,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3888,15 +3892,15 @@
         <v>455</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="F2" s="122">
+        <v>273</v>
+      </c>
+      <c r="F2" s="119">
         <v>43964</v>
       </c>
     </row>
@@ -3905,15 +3909,15 @@
         <v>435</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="F3" s="122">
+        <v>273</v>
+      </c>
+      <c r="F3" s="119">
         <v>43970</v>
       </c>
     </row>
@@ -3922,15 +3926,15 @@
         <v>452</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="F4" s="122">
+        <v>273</v>
+      </c>
+      <c r="F4" s="119">
         <v>43970</v>
       </c>
     </row>
@@ -3939,13 +3943,13 @@
         <v>406</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="45" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -3953,13 +3957,13 @@
         <v>121</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C6" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E6" s="11"/>
     </row>
@@ -3968,13 +3972,13 @@
         <v>122</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C7" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -3983,13 +3987,13 @@
         <v>605</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3997,13 +4001,13 @@
         <v>392</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4011,13 +4015,13 @@
         <v>665</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>97</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4025,13 +4029,13 @@
         <v>53</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4039,17 +4043,25 @@
         <v>763</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C13" s="29"/>
+      <c r="A13" s="11">
+        <v>630</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>444</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C14" s="29"/>
@@ -4074,9 +4086,10 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{C17E8977-A048-486E-9CE6-1FE061613860}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{A0A1A25A-A944-46E5-A4A3-F1140D09770D}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{66EC1666-F183-4E2F-B117-A6CA3EBD3F00}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{97F36160-DE2D-448A-8BB8-DFCCFC479D9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4095,7 +4108,7 @@
     <col min="1" max="1" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="144" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="140" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="11" bestFit="1" customWidth="1"/>
@@ -4113,13 +4126,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G1" s="28" t="s">
         <v>4</v>
@@ -4130,12 +4143,12 @@
         <v>69</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="122">
+      <c r="E2" s="119">
         <v>43930</v>
       </c>
     </row>
@@ -4144,7 +4157,7 @@
         <v>744</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>97</v>
@@ -4155,7 +4168,7 @@
         <v>540</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>10</v>
@@ -4166,7 +4179,7 @@
         <v>278</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>6</v>
@@ -4177,7 +4190,7 @@
         <v>153</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>6</v>
@@ -4188,17 +4201,17 @@
         <v>34</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="145">
+      <c r="D7" s="140"/>
+      <c r="E7" s="141">
         <v>44052</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4206,16 +4219,16 @@
         <v>33</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="122">
+      <c r="E8" s="119">
         <v>44005</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4223,16 +4236,16 @@
         <v>410</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="122">
+      <c r="E9" s="119">
         <v>44051</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4240,12 +4253,12 @@
         <v>35</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="122">
+      <c r="E10" s="119">
         <v>44052</v>
       </c>
     </row>
@@ -4312,10 +4325,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="32" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -4323,16 +4336,16 @@
         <v>315</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4340,13 +4353,13 @@
         <v>241</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -4354,33 +4367,33 @@
         <v>95</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="119" t="s">
-        <v>352</v>
+      <c r="B5" s="116" t="s">
+        <v>348</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="125" t="s">
-        <v>353</v>
-      </c>
-      <c r="F5" s="126">
+      <c r="D5" s="122" t="s">
+        <v>349</v>
+      </c>
+      <c r="F5" s="123">
         <v>44002</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -4407,7 +4420,7 @@
   <dimension ref="A1:G383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4433,13 +4446,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>4</v>
@@ -4450,13 +4463,13 @@
         <v>1091</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
@@ -4464,13 +4477,13 @@
         <v>279</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -4480,13 +4493,13 @@
         <v>127</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4494,16 +4507,16 @@
         <v>695</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4511,16 +4524,16 @@
         <v>200</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -4528,13 +4541,13 @@
         <v>547</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -4542,13 +4555,13 @@
         <v>130</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -4556,13 +4569,13 @@
         <v>417</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -4570,13 +4583,13 @@
         <v>994</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -4584,23 +4597,51 @@
         <v>679</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="E11" s="106">
+        <v>431</v>
+      </c>
+      <c r="E11" s="105">
         <v>44058</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C12" s="11"/>
+      <c r="A12" s="10">
+        <v>207</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="E12" s="105">
+        <v>44059</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C13" s="11"/>
+      <c r="A13" s="10">
+        <v>210</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="E13" s="105">
+        <v>44061</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C14" s="11"/>
@@ -5722,9 +5763,11 @@
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{200F1CAE-E389-43CB-94FC-AD6DD6FEDF05}"/>
     <hyperlink ref="B11" r:id="rId2" xr:uid="{C13870A4-60E4-42C6-8D80-F3B027FC1BF4}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{151D57F2-F78A-4F55-BF8A-6DCEBFAEA602}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{E8344887-7589-45B6-AFDF-48E46A0280E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -5760,34 +5803,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="38">
         <v>46</v>
       </c>
-      <c r="B2" s="92" t="s">
-        <v>222</v>
+      <c r="B2" s="91" t="s">
+        <v>218</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F2" s="40"/>
-      <c r="G2" s="138">
+      <c r="G2" s="134">
         <v>44035</v>
       </c>
     </row>
@@ -5795,18 +5838,18 @@
       <c r="A3" s="38">
         <v>47</v>
       </c>
-      <c r="B3" s="92" t="s">
-        <v>224</v>
+      <c r="B3" s="91" t="s">
+        <v>220</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F3" s="40"/>
-      <c r="G3" s="138">
+      <c r="G3" s="134">
         <v>44035</v>
       </c>
     </row>
@@ -5814,18 +5857,18 @@
       <c r="A4" s="38">
         <v>78</v>
       </c>
-      <c r="B4" s="92" t="s">
-        <v>225</v>
+      <c r="B4" s="91" t="s">
+        <v>221</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="138">
+      <c r="G4" s="134">
         <v>44037</v>
       </c>
     </row>
@@ -5833,18 +5876,18 @@
       <c r="A5" s="38">
         <v>90</v>
       </c>
-      <c r="B5" s="92" t="s">
-        <v>226</v>
+      <c r="B5" s="91" t="s">
+        <v>222</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F5" s="40"/>
-      <c r="G5" s="138">
+      <c r="G5" s="134">
         <v>44037</v>
       </c>
     </row>
@@ -5853,14 +5896,14 @@
         <v>39</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F6" s="40"/>
     </row>
@@ -5869,14 +5912,14 @@
         <v>40</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F7" s="40"/>
     </row>
@@ -5885,14 +5928,14 @@
         <v>22</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F8" s="40"/>
     </row>
@@ -5901,14 +5944,14 @@
         <v>17</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="38" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F9" s="40"/>
     </row>
@@ -5917,33 +5960,33 @@
         <v>93</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F10" s="40"/>
     </row>
-    <row r="11" spans="1:7" s="65" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="63">
+    <row r="11" spans="1:7" s="64" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="62">
         <v>79</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63" t="s">
-        <v>251</v>
-      </c>
-      <c r="F11" s="64" t="s">
-        <v>326</v>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5951,14 +5994,14 @@
         <v>257</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="38" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F12" s="40"/>
     </row>
@@ -5967,14 +6010,14 @@
         <v>77</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="38" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F13" s="40"/>
     </row>
@@ -5983,14 +6026,14 @@
         <v>216</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="38" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F14" s="40"/>
     </row>
@@ -5999,14 +6042,14 @@
         <v>131</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="38" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F15" s="40"/>
     </row>
@@ -6015,14 +6058,14 @@
         <v>37</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C16" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="38" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F16" s="40"/>
     </row>
@@ -6031,7 +6074,7 @@
         <v>51</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>8</v>
@@ -6466,23 +6509,23 @@
   <dimension ref="A1:H331"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.75" style="79" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="79" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.625" style="79" customWidth="1"/>
-    <col min="5" max="5" width="19" style="79" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="79" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="95" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="79"/>
+    <col min="1" max="1" width="6" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.75" style="78" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" style="78" customWidth="1"/>
+    <col min="5" max="5" width="19" style="78" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="78" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="94" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="76" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="75" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -6493,37 +6536,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="76" t="s">
-        <v>342</v>
-      </c>
-      <c r="G1" s="98" t="s">
-        <v>372</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="78" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="F1" s="75" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" s="97" t="s">
+        <v>367</v>
+      </c>
+      <c r="H1" s="75" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="77" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="47">
         <v>714</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C2" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E2" s="46"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="95">
+      <c r="F2" s="78"/>
+      <c r="G2" s="94">
         <v>43920</v>
       </c>
     </row>
@@ -6532,16 +6575,16 @@
         <v>122</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E3" s="46"/>
-      <c r="G3" s="95">
+      <c r="G3" s="94">
         <v>43920</v>
       </c>
     </row>
@@ -6550,236 +6593,236 @@
         <v>123</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="96">
+        <v>212</v>
+      </c>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="95">
         <v>43920</v>
       </c>
-      <c r="H4" s="80"/>
-    </row>
-    <row r="5" spans="1:8" s="80" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="H4" s="79"/>
+    </row>
+    <row r="5" spans="1:8" s="79" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="35">
         <v>188</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="96">
+        <v>213</v>
+      </c>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="95">
         <v>43920</v>
       </c>
-      <c r="H5" s="79"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="47">
         <v>309</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E6" s="46"/>
-      <c r="G6" s="95">
+      <c r="G6" s="94">
         <v>43920</v>
       </c>
-      <c r="H6" s="78"/>
-    </row>
-    <row r="7" spans="1:8" s="78" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="H6" s="77"/>
+    </row>
+    <row r="7" spans="1:8" s="77" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="47">
         <v>322</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E7" s="46"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="99">
+      <c r="F7" s="79"/>
+      <c r="G7" s="98">
         <v>43921</v>
       </c>
-      <c r="H7" s="81"/>
-    </row>
-    <row r="8" spans="1:8" s="81" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H7" s="80"/>
+    </row>
+    <row r="8" spans="1:8" s="80" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="47">
         <v>416</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E8" s="46"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="95">
+      <c r="F8" s="78"/>
+      <c r="G8" s="94">
         <v>43921</v>
       </c>
-      <c r="H8" s="78"/>
-    </row>
-    <row r="9" spans="1:8" s="78" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H8" s="77"/>
+    </row>
+    <row r="9" spans="1:8" s="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="47">
         <v>64</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="46"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="99">
+      <c r="F9" s="79"/>
+      <c r="G9" s="98">
         <v>43924</v>
       </c>
-      <c r="H9" s="82"/>
-    </row>
-    <row r="10" spans="1:8" s="82" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="H9" s="81"/>
+    </row>
+    <row r="10" spans="1:8" s="81" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A10" s="47">
         <v>70</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E10" s="46"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="95">
+      <c r="F10" s="78"/>
+      <c r="G10" s="94">
         <v>43924</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="82" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="81" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="47">
         <v>198</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="95">
+        <v>170</v>
+      </c>
+      <c r="F11" s="78"/>
+      <c r="G11" s="94">
         <v>43924</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="82" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="79">
+    <row r="12" spans="1:8" s="81" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="78">
         <v>44</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="91" t="s">
+        <v>386</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="78"/>
+      <c r="E12" s="89" t="s">
+        <v>387</v>
+      </c>
+      <c r="F12" s="78"/>
+      <c r="G12" s="94">
+        <v>43956</v>
+      </c>
+      <c r="H12" s="78"/>
+    </row>
+    <row r="13" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="78">
+        <v>877</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>390</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="78" t="s">
         <v>391</v>
       </c>
-      <c r="C12" s="90" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="90" t="s">
-        <v>392</v>
-      </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="95">
-        <v>43956</v>
-      </c>
-      <c r="H12" s="79"/>
-    </row>
-    <row r="13" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="79">
-        <v>877</v>
-      </c>
-      <c r="B13" s="92" t="s">
-        <v>395</v>
-      </c>
-      <c r="C13" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="79" t="s">
-        <v>396</v>
-      </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="95">
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="94">
         <v>43972</v>
       </c>
-      <c r="H13" s="79"/>
-    </row>
-    <row r="14" spans="1:8" s="84" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H13" s="78"/>
+    </row>
+    <row r="14" spans="1:8" s="83" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="35">
         <v>53</v>
       </c>
-      <c r="B14" s="66" t="s">
-        <v>169</v>
+      <c r="B14" s="65" t="s">
+        <v>165</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="35"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="96">
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="95">
         <v>44003</v>
       </c>
-      <c r="H14" s="82" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="81" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="74">
+      <c r="H14" s="81" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="80" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="73">
         <v>135</v>
       </c>
-      <c r="B15" s="75" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="74" t="s">
+      <c r="B15" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="127" t="s">
-        <v>368</v>
-      </c>
-      <c r="G15" s="102">
+      <c r="D15" s="73"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="124" t="s">
+        <v>364</v>
+      </c>
+      <c r="G15" s="101">
         <v>44004</v>
       </c>
-      <c r="H15" s="79" t="s">
-        <v>406</v>
+      <c r="H15" s="78" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
@@ -6787,95 +6830,95 @@
         <v>152</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="E16" s="87" t="s">
-        <v>174</v>
-      </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="104">
+        <v>342</v>
+      </c>
+      <c r="E16" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="80"/>
+      <c r="G16" s="103">
         <v>44004</v>
       </c>
-      <c r="H16" s="78"/>
-    </row>
-    <row r="17" spans="1:8" s="78" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="H16" s="77"/>
+    </row>
+    <row r="17" spans="1:8" s="77" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A17" s="47">
         <v>121</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E17" s="46"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="94">
+      <c r="F17" s="80"/>
+      <c r="G17" s="93">
         <v>44005</v>
       </c>
-      <c r="H17" s="79" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="86" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H17" s="78" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="85" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="46">
         <v>62</v>
       </c>
-      <c r="B18" s="91" t="s">
-        <v>176</v>
+      <c r="B18" s="90" t="s">
+        <v>172</v>
       </c>
       <c r="C18" s="46" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="95">
+      <c r="F18" s="78"/>
+      <c r="G18" s="94">
         <v>44041</v>
       </c>
-      <c r="H18" s="84"/>
-    </row>
-    <row r="19" spans="1:8" s="78" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="77">
+      <c r="H18" s="83"/>
+    </row>
+    <row r="19" spans="1:8" s="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="76">
         <v>63</v>
       </c>
-      <c r="B19" s="139" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="77" t="s">
+      <c r="B19" s="135" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="G19" s="96">
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="G19" s="95">
         <v>44041</v>
       </c>
-      <c r="H19" s="81"/>
-    </row>
-    <row r="20" spans="1:8" s="141" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="140">
+      <c r="H19" s="80"/>
+    </row>
+    <row r="20" spans="1:8" s="137" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="136">
         <v>72</v>
       </c>
-      <c r="B20" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="140" t="s">
+      <c r="B20" s="136" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="G20" s="142">
+      <c r="D20" s="136"/>
+      <c r="E20" s="136" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="138">
         <v>44041</v>
       </c>
     </row>
@@ -6883,157 +6926,157 @@
       <c r="A21" s="35">
         <v>87</v>
       </c>
-      <c r="B21" s="66" t="s">
-        <v>181</v>
+      <c r="B21" s="65" t="s">
+        <v>177</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="35"/>
-      <c r="E21" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="78"/>
-    </row>
-    <row r="22" spans="1:8" s="78" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E21" s="65" t="s">
+        <v>327</v>
+      </c>
+      <c r="F21" s="80"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="77"/>
+    </row>
+    <row r="22" spans="1:8" s="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="35">
         <v>89</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="G22" s="96"/>
-      <c r="H22" s="86"/>
+        <v>188</v>
+      </c>
+      <c r="G22" s="95"/>
+      <c r="H22" s="85"/>
     </row>
     <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="47">
         <v>91</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="78"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="77"/>
     </row>
     <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="47">
         <v>96</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="80"/>
     </row>
     <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="47">
         <v>97</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="47"/>
       <c r="E25" s="47"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="100"/>
-    </row>
-    <row r="26" spans="1:8" s="78" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F25" s="81"/>
+      <c r="G25" s="99"/>
+    </row>
+    <row r="26" spans="1:8" s="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="47">
         <v>115</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="47"/>
       <c r="E26" s="47"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="100"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="99"/>
     </row>
     <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="67">
+      <c r="A27" s="66">
         <v>120</v>
       </c>
-      <c r="B27" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="67" t="s">
+      <c r="B27" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="101"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="100"/>
     </row>
     <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="47">
         <v>139</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="47"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="96"/>
-    </row>
-    <row r="29" spans="1:8" s="80" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F28" s="77"/>
+      <c r="G28" s="95"/>
+    </row>
+    <row r="29" spans="1:8" s="79" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="46">
         <v>174</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C29" s="46" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="79"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="78"/>
     </row>
     <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="47">
         <v>213</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E30" s="46"/>
     </row>
@@ -7042,37 +7085,37 @@
         <v>279</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C31" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="47"/>
       <c r="E31" s="47"/>
-      <c r="H31" s="80"/>
-    </row>
-    <row r="32" spans="1:8" s="80" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H31" s="79"/>
+    </row>
+    <row r="32" spans="1:8" s="79" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="35">
         <v>300</v>
       </c>
-      <c r="B32" s="66" t="s">
-        <v>172</v>
+      <c r="B32" s="65" t="s">
+        <v>168</v>
       </c>
       <c r="C32" s="35" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="35"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="79"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="78"/>
     </row>
     <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A33" s="47">
         <v>303</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C33" s="47" t="s">
         <v>6</v>
@@ -7085,21 +7128,21 @@
         <v>343</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C34" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="47"/>
       <c r="E34" s="47"/>
-      <c r="H34" s="80"/>
+      <c r="H34" s="79"/>
     </row>
     <row r="35" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="36">
         <v>376</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C35" s="36" t="s">
         <v>10</v>
@@ -7107,115 +7150,115 @@
       <c r="D35" s="36"/>
       <c r="E35" s="46"/>
     </row>
-    <row r="36" spans="1:8" s="88" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" s="87" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A36" s="47">
         <v>377</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C36" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E36" s="46"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="79"/>
-    </row>
-    <row r="37" spans="1:8" s="80" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F36" s="79"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="78"/>
+    </row>
+    <row r="37" spans="1:8" s="79" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="47">
         <v>413</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C37" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="47"/>
       <c r="E37" s="46"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="79"/>
-    </row>
-    <row r="38" spans="1:8" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F37" s="78"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="78"/>
+    </row>
+    <row r="38" spans="1:8" s="88" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="47">
         <v>474</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C38" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E38" s="46"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="88"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="87"/>
     </row>
     <row r="39" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="67">
+      <c r="A39" s="66">
         <v>494</v>
       </c>
-      <c r="B39" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="C39" s="67" t="s">
+      <c r="B39" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="67" t="s">
-        <v>200</v>
-      </c>
-      <c r="E39" s="83"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="80"/>
+      <c r="D39" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" s="82"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="79"/>
     </row>
     <row r="40" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A40" s="47">
         <v>518</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C40" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E40" s="46"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="89"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="88"/>
     </row>
     <row r="41" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A41" s="47">
         <v>583</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C41" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="47"/>
       <c r="E41" s="47"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="104"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="103"/>
     </row>
     <row r="42" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="47">
         <v>646</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C42" s="47" t="s">
         <v>10</v>
@@ -7228,7 +7271,7 @@
         <v>650</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>10</v>
@@ -7241,7 +7284,7 @@
         <v>980</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>8</v>
@@ -7254,7 +7297,7 @@
         <v>1143</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C45" s="47" t="s">
         <v>10</v>
@@ -7263,862 +7306,862 @@
       <c r="E45" s="47"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C46" s="90"/>
+      <c r="C46" s="89"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C47" s="90"/>
+      <c r="C47" s="89"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C48" s="90"/>
+      <c r="C48" s="89"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C49" s="90"/>
+      <c r="C49" s="89"/>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C50" s="90"/>
+      <c r="C50" s="89"/>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C51" s="90"/>
+      <c r="C51" s="89"/>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C52" s="90"/>
+      <c r="C52" s="89"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C53" s="90"/>
+      <c r="C53" s="89"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C54" s="90"/>
+      <c r="C54" s="89"/>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C55" s="90"/>
+      <c r="C55" s="89"/>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C56" s="90"/>
+      <c r="C56" s="89"/>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C57" s="90"/>
+      <c r="C57" s="89"/>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C58" s="90"/>
+      <c r="C58" s="89"/>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C59" s="90"/>
+      <c r="C59" s="89"/>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C60" s="90"/>
+      <c r="C60" s="89"/>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C61" s="90"/>
+      <c r="C61" s="89"/>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C62" s="90"/>
+      <c r="C62" s="89"/>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C63" s="90"/>
+      <c r="C63" s="89"/>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C64" s="90"/>
+      <c r="C64" s="89"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C65" s="90"/>
+      <c r="C65" s="89"/>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C66" s="90"/>
+      <c r="C66" s="89"/>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C67" s="90"/>
+      <c r="C67" s="89"/>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C68" s="90"/>
+      <c r="C68" s="89"/>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C69" s="90"/>
+      <c r="C69" s="89"/>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C70" s="90"/>
+      <c r="C70" s="89"/>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C71" s="90"/>
+      <c r="C71" s="89"/>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C72" s="90"/>
+      <c r="C72" s="89"/>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C73" s="90"/>
+      <c r="C73" s="89"/>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C74" s="90"/>
+      <c r="C74" s="89"/>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C75" s="90"/>
+      <c r="C75" s="89"/>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C76" s="90"/>
+      <c r="C76" s="89"/>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C77" s="90"/>
+      <c r="C77" s="89"/>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C78" s="90"/>
+      <c r="C78" s="89"/>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C79" s="90"/>
+      <c r="C79" s="89"/>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C80" s="90"/>
+      <c r="C80" s="89"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C81" s="90"/>
+      <c r="C81" s="89"/>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C82" s="90"/>
+      <c r="C82" s="89"/>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C83" s="90"/>
+      <c r="C83" s="89"/>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C84" s="90"/>
+      <c r="C84" s="89"/>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C85" s="90"/>
+      <c r="C85" s="89"/>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C86" s="90"/>
+      <c r="C86" s="89"/>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C87" s="90"/>
+      <c r="C87" s="89"/>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C88" s="90"/>
+      <c r="C88" s="89"/>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C89" s="90"/>
+      <c r="C89" s="89"/>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C90" s="90"/>
+      <c r="C90" s="89"/>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C91" s="90"/>
+      <c r="C91" s="89"/>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C92" s="90"/>
+      <c r="C92" s="89"/>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C93" s="90"/>
+      <c r="C93" s="89"/>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C94" s="90"/>
+      <c r="C94" s="89"/>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C95" s="90"/>
+      <c r="C95" s="89"/>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C96" s="90"/>
+      <c r="C96" s="89"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C97" s="90"/>
+      <c r="C97" s="89"/>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C98" s="90"/>
+      <c r="C98" s="89"/>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C99" s="90"/>
+      <c r="C99" s="89"/>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C100" s="90"/>
+      <c r="C100" s="89"/>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C101" s="90"/>
+      <c r="C101" s="89"/>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C102" s="90"/>
+      <c r="C102" s="89"/>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C103" s="90"/>
+      <c r="C103" s="89"/>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C104" s="90"/>
+      <c r="C104" s="89"/>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C105" s="90"/>
+      <c r="C105" s="89"/>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C106" s="90"/>
+      <c r="C106" s="89"/>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C107" s="90"/>
+      <c r="C107" s="89"/>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C108" s="90"/>
+      <c r="C108" s="89"/>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C109" s="90"/>
+      <c r="C109" s="89"/>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C110" s="90"/>
+      <c r="C110" s="89"/>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C111" s="90"/>
+      <c r="C111" s="89"/>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C112" s="90"/>
+      <c r="C112" s="89"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C113" s="90"/>
+      <c r="C113" s="89"/>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C114" s="90"/>
+      <c r="C114" s="89"/>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C115" s="90"/>
+      <c r="C115" s="89"/>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C116" s="90"/>
+      <c r="C116" s="89"/>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C117" s="90"/>
+      <c r="C117" s="89"/>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C118" s="90"/>
+      <c r="C118" s="89"/>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C119" s="90"/>
+      <c r="C119" s="89"/>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C120" s="90"/>
+      <c r="C120" s="89"/>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C121" s="90"/>
+      <c r="C121" s="89"/>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C122" s="90"/>
+      <c r="C122" s="89"/>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C123" s="90"/>
+      <c r="C123" s="89"/>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C124" s="90"/>
+      <c r="C124" s="89"/>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C125" s="90"/>
+      <c r="C125" s="89"/>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C126" s="90"/>
+      <c r="C126" s="89"/>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C127" s="90"/>
+      <c r="C127" s="89"/>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C128" s="90"/>
+      <c r="C128" s="89"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C129" s="90"/>
+      <c r="C129" s="89"/>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C130" s="90"/>
+      <c r="C130" s="89"/>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C131" s="90"/>
+      <c r="C131" s="89"/>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C132" s="90"/>
+      <c r="C132" s="89"/>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C133" s="90"/>
+      <c r="C133" s="89"/>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C134" s="90"/>
+      <c r="C134" s="89"/>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C135" s="90"/>
+      <c r="C135" s="89"/>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C136" s="90"/>
+      <c r="C136" s="89"/>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C137" s="90"/>
+      <c r="C137" s="89"/>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C138" s="90"/>
+      <c r="C138" s="89"/>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C139" s="90"/>
+      <c r="C139" s="89"/>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C140" s="90"/>
+      <c r="C140" s="89"/>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C141" s="90"/>
+      <c r="C141" s="89"/>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C142" s="90"/>
+      <c r="C142" s="89"/>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C143" s="90"/>
+      <c r="C143" s="89"/>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C144" s="90"/>
+      <c r="C144" s="89"/>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C145" s="90"/>
+      <c r="C145" s="89"/>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C146" s="90"/>
+      <c r="C146" s="89"/>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C147" s="90"/>
+      <c r="C147" s="89"/>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C148" s="90"/>
+      <c r="C148" s="89"/>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C149" s="90"/>
+      <c r="C149" s="89"/>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C150" s="90"/>
+      <c r="C150" s="89"/>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C151" s="90"/>
+      <c r="C151" s="89"/>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C152" s="90"/>
+      <c r="C152" s="89"/>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C153" s="90"/>
+      <c r="C153" s="89"/>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C154" s="90"/>
+      <c r="C154" s="89"/>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C155" s="90"/>
+      <c r="C155" s="89"/>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C156" s="90"/>
+      <c r="C156" s="89"/>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C157" s="90"/>
+      <c r="C157" s="89"/>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C158" s="90"/>
+      <c r="C158" s="89"/>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C159" s="90"/>
+      <c r="C159" s="89"/>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C160" s="90"/>
+      <c r="C160" s="89"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C161" s="90"/>
+      <c r="C161" s="89"/>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C162" s="90"/>
+      <c r="C162" s="89"/>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C163" s="90"/>
+      <c r="C163" s="89"/>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C164" s="90"/>
+      <c r="C164" s="89"/>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C165" s="90"/>
+      <c r="C165" s="89"/>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C166" s="90"/>
+      <c r="C166" s="89"/>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C167" s="90"/>
+      <c r="C167" s="89"/>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C168" s="90"/>
+      <c r="C168" s="89"/>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C169" s="90"/>
+      <c r="C169" s="89"/>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C170" s="90"/>
+      <c r="C170" s="89"/>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C171" s="90"/>
+      <c r="C171" s="89"/>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C172" s="90"/>
+      <c r="C172" s="89"/>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C173" s="90"/>
+      <c r="C173" s="89"/>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C174" s="90"/>
+      <c r="C174" s="89"/>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C175" s="90"/>
+      <c r="C175" s="89"/>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C176" s="90"/>
+      <c r="C176" s="89"/>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C177" s="90"/>
+      <c r="C177" s="89"/>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C178" s="90"/>
+      <c r="C178" s="89"/>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C179" s="90"/>
+      <c r="C179" s="89"/>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C180" s="90"/>
+      <c r="C180" s="89"/>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C181" s="90"/>
+      <c r="C181" s="89"/>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C182" s="90"/>
+      <c r="C182" s="89"/>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C183" s="90"/>
+      <c r="C183" s="89"/>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C184" s="90"/>
+      <c r="C184" s="89"/>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C185" s="90"/>
+      <c r="C185" s="89"/>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C186" s="90"/>
+      <c r="C186" s="89"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C187" s="90"/>
+      <c r="C187" s="89"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C188" s="90"/>
+      <c r="C188" s="89"/>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C189" s="90"/>
+      <c r="C189" s="89"/>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C190" s="90"/>
+      <c r="C190" s="89"/>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C191" s="90"/>
+      <c r="C191" s="89"/>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C192" s="90"/>
+      <c r="C192" s="89"/>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C193" s="90"/>
+      <c r="C193" s="89"/>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C194" s="90"/>
+      <c r="C194" s="89"/>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C195" s="90"/>
+      <c r="C195" s="89"/>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C196" s="90"/>
+      <c r="C196" s="89"/>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C197" s="90"/>
+      <c r="C197" s="89"/>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C198" s="90"/>
+      <c r="C198" s="89"/>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C199" s="90"/>
+      <c r="C199" s="89"/>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C200" s="90"/>
+      <c r="C200" s="89"/>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C201" s="90"/>
+      <c r="C201" s="89"/>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C202" s="90"/>
+      <c r="C202" s="89"/>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C203" s="90"/>
+      <c r="C203" s="89"/>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C204" s="90"/>
+      <c r="C204" s="89"/>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C205" s="90"/>
+      <c r="C205" s="89"/>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C206" s="90"/>
+      <c r="C206" s="89"/>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C207" s="90"/>
+      <c r="C207" s="89"/>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C208" s="90"/>
+      <c r="C208" s="89"/>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C209" s="90"/>
+      <c r="C209" s="89"/>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C210" s="90"/>
+      <c r="C210" s="89"/>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C211" s="90"/>
+      <c r="C211" s="89"/>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C212" s="90"/>
+      <c r="C212" s="89"/>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C213" s="90"/>
+      <c r="C213" s="89"/>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C214" s="90"/>
+      <c r="C214" s="89"/>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C215" s="90"/>
+      <c r="C215" s="89"/>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C216" s="90"/>
+      <c r="C216" s="89"/>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C217" s="90"/>
+      <c r="C217" s="89"/>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C218" s="90"/>
+      <c r="C218" s="89"/>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C219" s="90"/>
+      <c r="C219" s="89"/>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C220" s="90"/>
+      <c r="C220" s="89"/>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C221" s="90"/>
+      <c r="C221" s="89"/>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C222" s="90"/>
+      <c r="C222" s="89"/>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C223" s="90"/>
+      <c r="C223" s="89"/>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C224" s="90"/>
+      <c r="C224" s="89"/>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C225" s="90"/>
+      <c r="C225" s="89"/>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C226" s="90"/>
+      <c r="C226" s="89"/>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C227" s="90"/>
+      <c r="C227" s="89"/>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C228" s="90"/>
+      <c r="C228" s="89"/>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C229" s="90"/>
+      <c r="C229" s="89"/>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C230" s="90"/>
+      <c r="C230" s="89"/>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C231" s="90"/>
+      <c r="C231" s="89"/>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C232" s="90"/>
+      <c r="C232" s="89"/>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C233" s="90"/>
+      <c r="C233" s="89"/>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C234" s="90"/>
+      <c r="C234" s="89"/>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C235" s="90"/>
+      <c r="C235" s="89"/>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C236" s="90"/>
+      <c r="C236" s="89"/>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C237" s="90"/>
+      <c r="C237" s="89"/>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C238" s="90"/>
+      <c r="C238" s="89"/>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C239" s="90"/>
+      <c r="C239" s="89"/>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C240" s="90"/>
+      <c r="C240" s="89"/>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C241" s="90"/>
+      <c r="C241" s="89"/>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C242" s="90"/>
+      <c r="C242" s="89"/>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C243" s="90"/>
+      <c r="C243" s="89"/>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C244" s="90"/>
+      <c r="C244" s="89"/>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C245" s="90"/>
+      <c r="C245" s="89"/>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C246" s="90"/>
+      <c r="C246" s="89"/>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C247" s="90"/>
+      <c r="C247" s="89"/>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C248" s="90"/>
+      <c r="C248" s="89"/>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C249" s="90"/>
+      <c r="C249" s="89"/>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C250" s="90"/>
+      <c r="C250" s="89"/>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C251" s="90"/>
+      <c r="C251" s="89"/>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C252" s="90"/>
+      <c r="C252" s="89"/>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C253" s="90"/>
+      <c r="C253" s="89"/>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C254" s="90"/>
+      <c r="C254" s="89"/>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C255" s="90"/>
+      <c r="C255" s="89"/>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C256" s="90"/>
+      <c r="C256" s="89"/>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C257" s="90"/>
+      <c r="C257" s="89"/>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C258" s="90"/>
+      <c r="C258" s="89"/>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C259" s="90"/>
+      <c r="C259" s="89"/>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C260" s="90"/>
+      <c r="C260" s="89"/>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C261" s="90"/>
+      <c r="C261" s="89"/>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C262" s="90"/>
+      <c r="C262" s="89"/>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C263" s="90"/>
+      <c r="C263" s="89"/>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C264" s="90"/>
+      <c r="C264" s="89"/>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C265" s="90"/>
+      <c r="C265" s="89"/>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C266" s="90"/>
+      <c r="C266" s="89"/>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C267" s="90"/>
+      <c r="C267" s="89"/>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C268" s="90"/>
+      <c r="C268" s="89"/>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C269" s="90"/>
+      <c r="C269" s="89"/>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C270" s="90"/>
+      <c r="C270" s="89"/>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C271" s="90"/>
+      <c r="C271" s="89"/>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C272" s="90"/>
+      <c r="C272" s="89"/>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C273" s="90"/>
+      <c r="C273" s="89"/>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C274" s="90"/>
+      <c r="C274" s="89"/>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C275" s="90"/>
+      <c r="C275" s="89"/>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C276" s="90"/>
+      <c r="C276" s="89"/>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C277" s="90"/>
+      <c r="C277" s="89"/>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C278" s="90"/>
+      <c r="C278" s="89"/>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C279" s="90"/>
+      <c r="C279" s="89"/>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C280" s="90"/>
+      <c r="C280" s="89"/>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C281" s="90"/>
+      <c r="C281" s="89"/>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C282" s="90"/>
+      <c r="C282" s="89"/>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C283" s="90"/>
+      <c r="C283" s="89"/>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C284" s="90"/>
+      <c r="C284" s="89"/>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C285" s="90"/>
+      <c r="C285" s="89"/>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C286" s="90"/>
+      <c r="C286" s="89"/>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C287" s="90"/>
+      <c r="C287" s="89"/>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C288" s="90"/>
+      <c r="C288" s="89"/>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C289" s="90"/>
+      <c r="C289" s="89"/>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C290" s="90"/>
+      <c r="C290" s="89"/>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C291" s="90"/>
+      <c r="C291" s="89"/>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C292" s="90"/>
+      <c r="C292" s="89"/>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C293" s="90"/>
+      <c r="C293" s="89"/>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C294" s="90"/>
+      <c r="C294" s="89"/>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C295" s="90"/>
+      <c r="C295" s="89"/>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C296" s="90"/>
+      <c r="C296" s="89"/>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C297" s="90"/>
+      <c r="C297" s="89"/>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C298" s="90"/>
+      <c r="C298" s="89"/>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C299" s="90"/>
+      <c r="C299" s="89"/>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C300" s="90"/>
+      <c r="C300" s="89"/>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C301" s="90"/>
+      <c r="C301" s="89"/>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C302" s="90"/>
+      <c r="C302" s="89"/>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C303" s="90"/>
+      <c r="C303" s="89"/>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C304" s="90"/>
+      <c r="C304" s="89"/>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C305" s="90"/>
+      <c r="C305" s="89"/>
     </row>
     <row r="306" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C306" s="90"/>
+      <c r="C306" s="89"/>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C307" s="90"/>
+      <c r="C307" s="89"/>
     </row>
     <row r="308" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C308" s="90"/>
+      <c r="C308" s="89"/>
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C309" s="90"/>
+      <c r="C309" s="89"/>
     </row>
     <row r="310" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C310" s="90"/>
+      <c r="C310" s="89"/>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C311" s="90"/>
+      <c r="C311" s="89"/>
     </row>
     <row r="312" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C312" s="90"/>
+      <c r="C312" s="89"/>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C313" s="90"/>
+      <c r="C313" s="89"/>
     </row>
     <row r="314" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C314" s="90"/>
+      <c r="C314" s="89"/>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C315" s="90"/>
+      <c r="C315" s="89"/>
     </row>
     <row r="316" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C316" s="90"/>
+      <c r="C316" s="89"/>
     </row>
     <row r="317" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C317" s="90"/>
+      <c r="C317" s="89"/>
     </row>
     <row r="318" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C318" s="90"/>
+      <c r="C318" s="89"/>
     </row>
     <row r="319" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C319" s="90"/>
+      <c r="C319" s="89"/>
     </row>
     <row r="320" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C320" s="90"/>
+      <c r="C320" s="89"/>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C321" s="90"/>
+      <c r="C321" s="89"/>
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C322" s="90"/>
+      <c r="C322" s="89"/>
     </row>
     <row r="323" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C323" s="90"/>
+      <c r="C323" s="89"/>
     </row>
     <row r="324" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C324" s="90"/>
+      <c r="C324" s="89"/>
     </row>
     <row r="325" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C325" s="90"/>
+      <c r="C325" s="89"/>
     </row>
     <row r="326" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C326" s="90"/>
+      <c r="C326" s="89"/>
     </row>
     <row r="327" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C327" s="90"/>
+      <c r="C327" s="89"/>
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C328" s="90"/>
+      <c r="C328" s="89"/>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C329" s="90"/>
+      <c r="C329" s="89"/>
     </row>
     <row r="330" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C330" s="90"/>
+      <c r="C330" s="89"/>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C331" s="90"/>
+      <c r="C331" s="89"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H331">
@@ -8193,19 +8236,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -8213,15 +8256,15 @@
         <v>204</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="G2" s="122">
+        <v>298</v>
+      </c>
+      <c r="G2" s="119">
         <v>43946</v>
       </c>
     </row>
@@ -8230,12 +8273,12 @@
         <v>504</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="122">
+      <c r="G3" s="119">
         <v>43946</v>
       </c>
     </row>
@@ -8244,15 +8287,15 @@
         <v>405</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="G4" s="122">
+        <v>300</v>
+      </c>
+      <c r="G4" s="119">
         <v>43946</v>
       </c>
     </row>
@@ -8261,16 +8304,16 @@
         <v>168</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>97</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -8278,18 +8321,18 @@
         <v>172</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="G6" s="122">
+        <v>304</v>
+      </c>
+      <c r="G6" s="119">
         <v>43922</v>
       </c>
     </row>
@@ -8298,19 +8341,19 @@
         <v>9</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="G7" s="122">
+        <v>411</v>
+      </c>
+      <c r="G7" s="119">
         <v>44005</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -8363,19 +8406,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -8383,19 +8426,19 @@
         <v>146</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="G2" s="122">
+        <v>404</v>
+      </c>
+      <c r="G2" s="119">
         <v>44004</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -8414,9 +8457,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H293"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8433,7 +8476,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -8442,19 +8485,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -8462,7 +8505,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -8472,34 +8515,34 @@
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="45" t="s">
-        <v>377</v>
-      </c>
-      <c r="G2" s="107">
+        <v>372</v>
+      </c>
+      <c r="G2" s="106">
         <v>43923</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="58">
+      <c r="A3" s="57">
         <v>23</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>327</v>
-      </c>
-      <c r="C3" s="58" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="58" t="s">
-        <v>379</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58" t="s">
-        <v>330</v>
-      </c>
-      <c r="G3" s="108">
+      <c r="D3" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" s="107">
         <v>44005</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -8507,7 +8550,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -8517,7 +8560,7 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="108">
+      <c r="G4" s="107">
         <v>43923</v>
       </c>
     </row>
@@ -8526,7 +8569,7 @@
         <v>83</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>6</v>
@@ -8536,7 +8579,7 @@
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
-      <c r="G5" s="107">
+      <c r="G5" s="106">
         <v>43924</v>
       </c>
     </row>
@@ -8545,7 +8588,7 @@
         <v>234</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C6" s="45" t="s">
         <v>6</v>
@@ -8555,7 +8598,7 @@
       </c>
       <c r="E6" s="45"/>
       <c r="F6" s="45"/>
-      <c r="G6" s="107">
+      <c r="G6" s="106">
         <v>43924</v>
       </c>
       <c r="H6" s="5"/>
@@ -8565,7 +8608,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C7" s="45" t="s">
         <v>10</v>
@@ -8573,11 +8616,11 @@
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="107">
+      <c r="G7" s="106">
         <v>43999</v>
       </c>
-      <c r="H7" s="123" t="s">
-        <v>401</v>
+      <c r="H7" s="120" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -8585,29 +8628,29 @@
         <v>21</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C8" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="45"/>
-      <c r="G8" s="107">
+      <c r="G8" s="106">
         <v>44004</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="130" customFormat="1" x14ac:dyDescent="0.15">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="127" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>206</v>
       </c>
-      <c r="B9" s="109" t="s">
-        <v>296</v>
+      <c r="B9" s="108" t="s">
+        <v>292</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -8617,19 +8660,19 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="110">
+      <c r="G9" s="109">
         <v>44005</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>25</v>
       </c>
-      <c r="B10" s="109" t="s">
-        <v>295</v>
+      <c r="B10" s="108" t="s">
+        <v>291</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -8637,11 +8680,11 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="110">
+      <c r="G10" s="109">
         <v>44005</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -8649,14 +8692,14 @@
         <v>141</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
@@ -8666,14 +8709,14 @@
         <v>142</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="5"/>
@@ -8683,7 +8726,7 @@
         <v>160</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>6</v>
@@ -9615,8 +9658,8 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9624,10 +9667,9 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -9642,16 +9684,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>367</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>342</v>
+        <v>448</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -9665,15 +9707,14 @@
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="97">
+        <v>328</v>
+      </c>
+      <c r="E2" s="96">
         <v>43920</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" s="45" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>112</v>
       </c>
@@ -9686,11 +9727,10 @@
       <c r="D3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="97">
+      <c r="E3" s="96">
         <v>43921</v>
       </c>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
@@ -9703,10 +9743,9 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E4" s="50"/>
-      <c r="G4" s="105">
+        <v>368</v>
+      </c>
+      <c r="E4" s="104">
         <v>43921</v>
       </c>
     </row>
@@ -9715,55 +9754,52 @@
         <v>235</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="50"/>
-      <c r="G5" s="105">
+        <v>106</v>
+      </c>
+      <c r="E5" s="104">
         <v>43924</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="115">
+      <c r="A6" s="113">
         <v>236</v>
       </c>
-      <c r="B6" s="116" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="115" t="s">
+      <c r="B6" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="115" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="117"/>
-      <c r="G6" s="118">
+      <c r="D6" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="115">
         <v>43924</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="114">
+      <c r="A7" s="112">
         <v>337</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="134"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="135">
+      <c r="E7" s="131">
         <v>43928</v>
       </c>
+      <c r="G7" s="112"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
@@ -9778,8 +9814,7 @@
       <c r="D8" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="G8" s="105">
+      <c r="E8" s="104">
         <v>43928</v>
       </c>
     </row>
@@ -9788,31 +9823,29 @@
         <v>94</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E9" s="50"/>
-    </row>
-    <row r="10" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="45">
         <v>98</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C10" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>360</v>
-      </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="45"/>
+        <v>356</v>
+      </c>
+      <c r="E10" s="45"/>
       <c r="G10" s="45"/>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -9826,10 +9859,9 @@
         <v>6</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>356</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="45"/>
+        <v>352</v>
+      </c>
+      <c r="E11" s="45"/>
       <c r="G11" s="45"/>
     </row>
     <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -9837,17 +9869,16 @@
         <v>102</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C12" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="45"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="45"/>
+      <c r="E12" s="45"/>
       <c r="G12" s="45"/>
     </row>
-    <row r="13" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="45">
         <v>104</v>
       </c>
@@ -9858,12 +9889,11 @@
         <v>6</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>357</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="45"/>
+        <v>353</v>
+      </c>
+      <c r="E13" s="104">
+        <v>44064</v>
+      </c>
       <c r="G13" s="45"/>
     </row>
     <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -9871,16 +9901,15 @@
         <v>105</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C14" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>363</v>
-      </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="45"/>
+        <v>359</v>
+      </c>
+      <c r="E14" s="45"/>
       <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -9888,16 +9917,15 @@
         <v>108</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C15" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="45"/>
+        <v>115</v>
+      </c>
+      <c r="E15" s="45"/>
       <c r="G15" s="45"/>
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -9905,71 +9933,63 @@
         <v>109</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C16" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>369</v>
-      </c>
-      <c r="F16" s="45"/>
+        <v>446</v>
+      </c>
+      <c r="E16" s="45"/>
       <c r="G16" s="45"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="111">
+      <c r="A17" s="110">
         <v>110</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="113"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-    </row>
-    <row r="18" spans="1:7" s="137" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="114">
+      <c r="E17" s="110"/>
+      <c r="G17" s="110"/>
+    </row>
+    <row r="18" spans="1:7" s="133" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="112">
         <v>114</v>
       </c>
-      <c r="B18" s="136" t="s">
-        <v>364</v>
-      </c>
-      <c r="C18" s="114" t="s">
+      <c r="B18" s="132" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="114" t="s">
-        <v>370</v>
-      </c>
-      <c r="E18" s="134"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
+      <c r="D18" s="112" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" s="112"/>
+      <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>144</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="45"/>
+        <v>445</v>
+      </c>
+      <c r="E19" s="45"/>
       <c r="G19" s="45"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -9977,31 +9997,29 @@
         <v>145</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C20" s="45" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>208</v>
       </c>
-      <c r="B21" s="133" t="s">
-        <v>129</v>
+      <c r="B21" s="130" t="s">
+        <v>125</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -10009,16 +10027,15 @@
         <v>230</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="E22" s="6"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -10034,67 +10051,62 @@
       <c r="D23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="50"/>
     </row>
     <row r="24" spans="1:7" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="58">
+      <c r="A24" s="57">
         <v>501</v>
       </c>
-      <c r="B24" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="58" t="s">
+      <c r="B24" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="55"/>
+      <c r="D24" s="57" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>513</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="50"/>
-    </row>
-    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>530</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="50"/>
+        <v>121</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>538</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="50"/>
+        <v>113</v>
+      </c>
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
@@ -10109,12 +10121,11 @@
       <c r="D28" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="G28" s="97">
+      <c r="E28" s="96">
         <v>43929</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -10130,7 +10141,6 @@
       <c r="D29" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="50"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
@@ -10145,7 +10155,6 @@
       <c r="D30" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="50"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
@@ -10160,43 +10169,36 @@
       <c r="D31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="50" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>653</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="50"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>669</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="45">
         <v>671</v>
       </c>
@@ -10209,22 +10211,20 @@
       <c r="D34" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="50"/>
-    </row>
-    <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="58">
+    </row>
+    <row r="35" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="57">
         <v>677</v>
       </c>
-      <c r="B35" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="58" t="s">
+      <c r="B35" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-    </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="57"/>
+    </row>
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="45">
         <v>687</v>
       </c>
@@ -10237,28 +10237,27 @@
       <c r="D36" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="50"/>
-    </row>
-    <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>124</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="45" t="s">
-        <v>387</v>
-      </c>
-      <c r="G37" s="105">
+      <c r="D37" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="E37" s="104">
         <v>43930</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G36">
-    <sortCondition ref="G1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F36">
+    <sortCondition ref="F1"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
@@ -10304,9 +10303,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10332,16 +10331,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -10349,7 +10348,7 @@
         <v>232</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -10360,7 +10359,7 @@
         <v>225</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>6</v>
@@ -10371,13 +10370,13 @@
         <v>155</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -10385,16 +10384,16 @@
         <v>20</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="122">
+      <c r="E5" s="119">
         <v>44007</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -10402,22 +10401,22 @@
         <v>739</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="E6" s="122">
+        <v>416</v>
+      </c>
+      <c r="E6" s="119">
         <v>44047</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -10425,12 +10424,12 @@
         <v>503</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="122">
+      <c r="E7" s="119">
         <v>44048</v>
       </c>
     </row>
@@ -10439,7 +10438,7 @@
         <v>150</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>10</v>
@@ -10447,19 +10446,19 @@
     </row>
     <row r="9" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -10467,15 +10466,15 @@
         <v>84</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="E10" s="122">
+        <v>416</v>
+      </c>
+      <c r="E10" s="119">
         <v>44048</v>
       </c>
     </row>
@@ -10484,15 +10483,15 @@
         <v>496</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="E11" s="122">
+        <v>421</v>
+      </c>
+      <c r="E11" s="119">
         <v>44048</v>
       </c>
     </row>
@@ -10501,15 +10500,15 @@
         <v>556</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="E12" s="122">
+        <v>416</v>
+      </c>
+      <c r="E12" s="119">
         <v>44049</v>
       </c>
     </row>
@@ -10518,16 +10517,16 @@
         <v>622</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="122">
+      <c r="E13" s="119">
         <v>44059</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -10594,7 +10593,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -10605,7 +10604,7 @@
         <v>217</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>6</v>
@@ -10616,7 +10615,7 @@
         <v>594</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>6</v>
@@ -10627,7 +10626,7 @@
         <v>128</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>8</v>
@@ -10746,13 +10745,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>4</v>
@@ -10777,7 +10776,7 @@
         <v>242</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>6</v>
@@ -10788,7 +10787,7 @@
         <v>409</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>6</v>
@@ -10799,7 +10798,7 @@
         <v>205</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>6</v>
@@ -10810,7 +10809,7 @@
         <v>647</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>10</v>
@@ -10821,7 +10820,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>6</v>
@@ -10832,7 +10831,7 @@
         <v>696</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>6</v>
@@ -10843,16 +10842,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="106">
+      <c r="E9" s="105">
         <v>44000</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -10947,7 +10946,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -10957,16 +10956,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -10974,12 +10973,12 @@
         <v>169</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="120">
+      <c r="E2" s="117">
         <v>43930</v>
       </c>
     </row>
@@ -10988,39 +10987,39 @@
         <v>1</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="E3" s="120">
+        <v>394</v>
+      </c>
+      <c r="E3" s="117">
         <v>43999</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="18">
         <v>42</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="125" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="E4" s="129">
+        <v>398</v>
+      </c>
+      <c r="E4" s="126">
         <v>43999</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G4" s="18"/>
     </row>
@@ -11053,26 +11052,26 @@
         <v>26</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="59"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="59">
+      <c r="A9" s="58">
         <v>41</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>371</v>
-      </c>
-      <c r="C9" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="C9" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="143">
+      <c r="E9" s="139">
         <v>44048</v>
       </c>
-      <c r="G9" s="59"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
@@ -11157,7 +11156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" s="58" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>122</v>
       </c>
@@ -11174,7 +11173,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>123</v>
       </c>
@@ -11188,41 +11187,41 @@
         <v>58</v>
       </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="59"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="59">
+      <c r="A18" s="58">
         <v>128</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="59" t="s">
-        <v>428</v>
-      </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="59" t="s">
+      <c r="D18" s="58" t="s">
+        <v>423</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="59">
+      <c r="A19" s="58">
         <v>134</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
-      <c r="G19" s="60"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="G19" s="59"/>
     </row>
     <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
@@ -11238,7 +11237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>188</v>
       </c>
@@ -11256,19 +11255,19 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="59">
+      <c r="A22" s="58">
         <v>189</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
@@ -11328,7 +11327,7 @@
         <v>240</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>10</v>
@@ -11401,46 +11400,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>283</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:7" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="71">
+    <row r="35" spans="1:7" s="19" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A35" s="70">
         <v>287</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
+      <c r="D35" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
     </row>
     <row r="36" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="22">
         <v>289</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>10</v>
@@ -11454,22 +11453,22 @@
       <c r="A37" s="51">
         <v>299</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="G37" s="69"/>
+      <c r="G37" s="68"/>
     </row>
     <row r="38" spans="1:7" s="51" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="69">
+      <c r="A38" s="68">
         <v>300</v>
       </c>
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="68" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11477,7 +11476,7 @@
       <c r="A39" s="51">
         <v>309</v>
       </c>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="67" t="s">
         <v>61</v>
       </c>
       <c r="C39" s="51" t="s">
@@ -11495,7 +11494,7 @@
         <v>321</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>8</v>
@@ -11512,7 +11511,7 @@
         <v>327</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>8</v>
@@ -11558,7 +11557,7 @@
         <v>378</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>10</v>
@@ -11570,13 +11569,13 @@
         <v>442</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -11584,13 +11583,13 @@
         <v>448</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -11598,7 +11597,7 @@
         <v>485</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>6</v>
@@ -11609,7 +11608,7 @@
         <v>565</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>10</v>
@@ -11620,7 +11619,7 @@
         <v>566</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>6</v>
@@ -11631,7 +11630,7 @@
         <v>645</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>6</v>
@@ -11642,7 +11641,7 @@
         <v>667</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>10</v>
@@ -11657,7 +11656,7 @@
         <v>697</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>6</v>
@@ -11680,12 +11679,12 @@
       </c>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="14">
         <v>766</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>6</v>
@@ -11696,36 +11695,36 @@
       <c r="G54" s="14"/>
     </row>
     <row r="55" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="59">
+      <c r="A55" s="58">
         <v>769</v>
       </c>
-      <c r="B55" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="C55" s="59" t="s">
+      <c r="B55" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="59"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
     </row>
     <row r="56" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="14">
         <v>54</v>
       </c>
       <c r="B56" s="48" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="14"/>
-      <c r="E56" s="146">
+      <c r="E56" s="142">
         <v>44058</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -11932,13 +11931,13 @@
         <v>461</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11946,13 +11945,13 @@
         <v>136</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11960,13 +11959,13 @@
         <v>268</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11974,13 +11973,13 @@
         <v>260</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
